--- a/数据整理/stocks/A股/创业板/300244-迪安诊断.xlsx
+++ b/数据整理/stocks/A股/创业板/300244-迪安诊断.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,440 +512,600 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>67.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.60</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.05</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7423</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6045</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1549</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>006274</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>圆信永丰医药健康混合</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>90.98</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>4.72</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161810</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银华内需精选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>93.76</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>003318</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城中证500行业中性低波动指数</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005994</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国投瑞银中证500指数量化增强A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>88.89</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1.07</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006048</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长城中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>91.04</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>4.18</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007089</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国投瑞银中证500指数量化增强C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>88.89</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007413</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>长城中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001965</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>圆信永丰兴源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001966</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>圆信永丰兴源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007903</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>长城量化小盘股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>84.74</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008112</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中泰中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008113</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中泰中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>512260</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华安中证500行业中性低波动ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>98.08</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>515760</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华夏中证浙江国资创新发展ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>98.41</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005108</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>圆信永丰双利优选定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -945,7 +1115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -966,15 +1136,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003318</t>
+          <t>900010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城中证500行业中性低波动指数</t>
+          <t>中信卓越成长两年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.33</t>
+          <t>140.59</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8082</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161838</t>
+          <t>900090</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银华创业板两年定期开放混合</t>
+          <t>中信卓越成长两年持有期混合B</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>95.86</t>
+          <t>103.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.5530</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006048</t>
+          <t>009394</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长城中证500指数增强A</t>
+          <t>银华同力精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>29.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6875</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007413</t>
+          <t>161810</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>长城中证500指数增强C</t>
+          <t>银华内需精选混合(LOF)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>33.99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4439</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006274</t>
+          <t>161838</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>圆信永丰医药健康混合</t>
+          <t>银华创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>9.97</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>95.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5713</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>512260</t>
+          <t>900100</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华安中证500行业中性低波动ETF</t>
+          <t>中信卓越成长两年持有期混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>98.03</t>
+          <t>7.91</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2705</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1154,25 +1394,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>515760</t>
+          <t>180020</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华夏中证浙江国资创新发展ETF</t>
+          <t>银华成长先锋混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>99.23</t>
+          <t>3.78</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1671</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001536</t>
+          <t>003318</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>南方君选灵活配置混合</t>
+          <t>景顺长城中证500行业中性低波动指数</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>43.26</t>
+          <t>14.66</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001965</t>
+          <t>005108</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>圆信永丰兴源灵活配置混合A</t>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001966</t>
+          <t>515760</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>圆信永丰兴源灵活配置混合C</t>
+          <t>华夏中证浙江国资创新发展ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>590007</t>
+          <t>001965</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中邮中证500指数增强A</t>
+          <t>圆信永丰兴源灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008124</t>
+          <t>001536</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中邮中证500指数增强C</t>
+          <t>南方君选灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>43.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>161810</t>
+          <t>006048</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>银华内需精选混合(LOF)</t>
+          <t>长城中证500指数增强A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.75</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005108</t>
+          <t>512260</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+          <t>华安中证500行业中性低波动ETF</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.68</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>180020</t>
+          <t>001966</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>银华成长先锋混合</t>
+          <t>圆信永丰兴源灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>79.48</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>900010</t>
+          <t>006274</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中信卓越成长两年持有期混合A</t>
+          <t>圆信永丰医药健康混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -1434,25 +1774,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>900090</t>
+          <t>590007</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中信卓越成长两年持有期混合B</t>
+          <t>中邮中证500指数增强A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>0.30</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>900100</t>
+          <t>007413</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中信卓越成长两年持有期混合C</t>
+          <t>长城中证500指数增强C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>94.04</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009394</t>
+          <t>008124</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>银华同力精选混合</t>
+          <t>中邮中证500指数增强C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>94.66</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>9.16</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>3</v>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300244-迪安诊断.xlsx
+++ b/数据整理/stocks/A股/创业板/300244-迪安诊断.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1885,4 +1886,820 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9129</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>106.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4214</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6803</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.74</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5663</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6274</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3378</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>69.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>69.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010434</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>红土创新医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300244-迪安诊断.xlsx
+++ b/数据整理/stocks/A股/创业板/300244-迪安诊断.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2702,4 +2703,704 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>126.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.4818</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>96.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.1880</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1294</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9806</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7715</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3343</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>180020</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007381</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>66.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>65.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007382</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>66.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>65.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300244-迪安诊断.xlsx
+++ b/数据整理/stocks/A股/创业板/300244-迪安诊断.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3403,4 +3404,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.09</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300244-迪安诊断.xlsx
+++ b/数据整理/stocks/A股/创业板/300244-迪安诊断.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3412,7 +3413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3423,17 +3424,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3443,14 +3464,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>15.25</v>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>133.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8153</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3459,14 +3502,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17.09</v>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>102.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7188</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3475,14 +3540,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.99</v>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3434</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3491,13 +3578,911 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3421</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8768</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4073</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3209</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2965</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008072</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城创业板综指增强</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>37.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>27.57</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>16</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>5.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300244-迪安诊断.xlsx
+++ b/数据整理/stocks/A股/创业板/300244-迪安诊断.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4381,7 +4382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4392,17 +4393,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4412,14 +4433,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.61</v>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>133.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4585</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -4428,14 +4471,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>15.25</v>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2607</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -4444,14 +4509,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17.09</v>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0736</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -4460,14 +4547,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>19</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.99</v>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5450</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -4476,13 +4585,357 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1797</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008778</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008779</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>16</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>5.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300244-迪安诊断.xlsx
+++ b/数据整理/stocks/A股/创业板/300244-迪安诊断.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4818,7 +4819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4829,17 +4830,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4849,14 +4870,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7204</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.77</v>
       </c>
     </row>
     <row r="3">
@@ -4865,14 +4908,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.61</v>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6386</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -4881,14 +4946,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.25</v>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5361</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -4897,14 +4984,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" t="n">
-        <v>17.09</v>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2024</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -4913,14 +5022,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>19</v>
-      </c>
-      <c r="D6" t="n">
-        <v>14.99</v>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -4929,13 +5060,1283 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>970041</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>970042</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国海量化优选一年持有股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.63</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006336</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泓德量化精选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011934</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013878</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014133</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011935</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013920</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011731</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>014134</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011732</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013921</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010999</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011000</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>兴华瑞丰混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>29.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013879</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>16</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>5.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300244-迪安诊断.xlsx
+++ b/数据整理/stocks/A股/创业板/300244-迪安诊断.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="D2" t="n">
-        <v>3.04</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>7.77</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>13.61</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>15.25</v>
+        <v>13.61</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>17.09</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>14.99</v>
+        <v>17.09</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>19</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>16</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>5.95</v>
       </c>
     </row>
@@ -600,6 +617,2412 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9006</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4748</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001556</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4416</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4140</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>45.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3906</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3747</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001879</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2342</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001557</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2277</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实量化精选股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2213</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2171</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006928</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2161</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2098</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>016950</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006336</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泓德量化精选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008072</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>景顺长城创业板综指增强</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011935</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>860029</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>63.41</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013920</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014750</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>兴华消费精选6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>015889</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>富国中证500基本面精选股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011731</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011934</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中航量化阿尔法六个月持有股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009514</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013921</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005616</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东方量化成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011732</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013154</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009513</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>860028</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>63.41</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014751</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>兴华消费精选6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000706</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中邮多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>57.62</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>015890</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国中证500基本面精选股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>860010</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>63.41</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005627</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005434</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏华睿投灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1983,7 +4406,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2419,7 +4842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3387,7 +5810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4087,7 +6510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4903,7 +7326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5681,7 +8104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300244-迪安诊断.xlsx
+++ b/数据整理/stocks/A股/创业板/300244-迪安诊断.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>5.38</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="D3" t="n">
-        <v>3.04</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D4" t="n">
-        <v>7.77</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>13.61</v>
+        <v>7.77</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>15.25</v>
+        <v>13.61</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>17.09</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>14.99</v>
+        <v>17.09</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,694 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>19</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14.99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>16</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>5.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009394</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华同力精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7423</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华内需精选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6045</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1549</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0722</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1298,972 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华内需精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9300</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4843</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3245</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2111</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013920</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010756</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴华永兴混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014750</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>兴华消费精选6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015889</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证500基本面精选股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013921</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>59.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014751</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴华消费精选6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010757</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴华永兴混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>015890</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国中证500基本面精选股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>59.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014181</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3022,7 +4669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4406,7 +6053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4842,7 +6489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5810,7 +7457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6510,7 +8157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7326,7 +8973,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8102,668 +9749,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009394</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华同力精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>67.71</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.60</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.7423</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>161810</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华内需精选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>60.57</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.76</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.6045</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>003318</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城中证500行业中性低波动指数</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>15.81</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.48</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1549</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>515760</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华夏中证浙江国资创新发展ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>98.41</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1257</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005108</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>圆信永丰双利优选定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0822</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007903</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>长城量化小盘股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>84.74</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0722</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001965</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>圆信永丰兴源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0531</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006048</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>长城中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.68</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0284</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005994</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国投瑞银中证500指数量化增强A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88.89</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0187</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>512260</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华安中证500行业中性低波动ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>98.08</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0159</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008112</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>中泰中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0147</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001966</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>圆信永丰兴源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0096</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006274</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>圆信永丰医药健康混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.98</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0094</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008113</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>中泰中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0064</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007089</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>国投瑞银中证500指数量化增强C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>88.89</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>007413</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>长城中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>